--- a/app/www/bug-antibio_display.xlsx
+++ b/app/www/bug-antibio_display.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/LOMWRU/Lao AMR Dashboard/Lao-AMR-Dashboard/app/www/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{782FE900-2BBB-7646-8C80-DD10B6309AD1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392A862F-E5C4-4A4A-8B6D-94875B993F37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3280" yWindow="-20420" windowWidth="33700" windowHeight="17480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-20420" windowWidth="33700" windowHeight="17480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -348,7 +348,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -391,6 +391,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -651,7 +659,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -725,6 +733,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1212,7 +1232,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1243,7 +1263,7 @@
       <c r="B1" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="29" t="s">
         <v>61</v>
       </c>
       <c r="D1" s="12" t="s">
@@ -1276,7 +1296,7 @@
       <c r="M1" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="29" t="s">
         <v>89</v>
       </c>
       <c r="O1" s="25" t="s">
@@ -1320,7 +1340,7 @@
       <c r="B2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="30" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1353,7 +1373,7 @@
       <c r="M2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="31" t="s">
         <v>30</v>
       </c>
       <c r="O2" s="16" t="s">
@@ -1397,7 +1417,7 @@
       <c r="B3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1430,7 +1450,7 @@
       <c r="M3" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="30" t="s">
         <v>31</v>
       </c>
       <c r="O3" s="16" t="s">
@@ -1474,7 +1494,7 @@
       <c r="B4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -1507,7 +1527,7 @@
       <c r="M4" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="31" t="s">
         <v>30</v>
       </c>
       <c r="O4" s="16" t="s">
@@ -1551,7 +1571,7 @@
       <c r="B5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1584,7 +1604,7 @@
       <c r="M5" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="30" t="s">
         <v>31</v>
       </c>
       <c r="O5" s="16" t="s">
@@ -1628,7 +1648,7 @@
       <c r="B6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1661,7 +1681,7 @@
       <c r="M6" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="31" t="s">
         <v>30</v>
       </c>
       <c r="O6" s="16" t="s">
@@ -1705,7 +1725,7 @@
       <c r="B7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1738,7 +1758,7 @@
       <c r="M7" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="31" t="s">
         <v>30</v>
       </c>
       <c r="O7" s="16" t="s">
@@ -1782,7 +1802,7 @@
       <c r="B8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1815,7 +1835,7 @@
       <c r="M8" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="N8" s="31" t="s">
         <v>30</v>
       </c>
       <c r="O8" s="16" t="s">
@@ -1859,7 +1879,7 @@
       <c r="B9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1892,7 +1912,7 @@
       <c r="M9" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="N9" s="31" t="s">
         <v>30</v>
       </c>
       <c r="O9" s="16" t="s">
@@ -1936,7 +1956,7 @@
       <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="30" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1969,7 +1989,7 @@
       <c r="M10" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="N10" s="31" t="s">
         <v>30</v>
       </c>
       <c r="O10" s="16" t="s">
@@ -2013,7 +2033,7 @@
       <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="30" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -2046,7 +2066,7 @@
       <c r="M11" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="N11" s="30" t="s">
         <v>31</v>
       </c>
       <c r="O11" s="19" t="s">
@@ -2090,7 +2110,7 @@
       <c r="B12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -2123,7 +2143,7 @@
       <c r="M12" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="N12" s="30" t="s">
         <v>31</v>
       </c>
       <c r="O12" s="19" t="s">
@@ -2167,7 +2187,7 @@
       <c r="B13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="30" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -2200,7 +2220,7 @@
       <c r="M13" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="N13" s="30" t="s">
         <v>31</v>
       </c>
       <c r="O13" s="16" t="s">
@@ -2244,7 +2264,7 @@
       <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -2277,7 +2297,7 @@
       <c r="M14" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="N14" s="31" t="s">
         <v>30</v>
       </c>
       <c r="O14" s="16" t="s">
@@ -2321,7 +2341,7 @@
       <c r="B15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -2354,7 +2374,7 @@
       <c r="M15" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="N15" s="31" t="s">
         <v>30</v>
       </c>
       <c r="O15" s="16" t="s">
@@ -2398,7 +2418,7 @@
       <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="30" t="s">
         <v>31</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -2431,7 +2451,7 @@
       <c r="M16" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="N16" s="30" t="s">
         <v>31</v>
       </c>
       <c r="O16" s="19" t="s">
@@ -2475,7 +2495,7 @@
       <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="30" t="s">
         <v>31</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -2508,7 +2528,7 @@
       <c r="M17" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="N17" s="31" t="s">
         <v>30</v>
       </c>
       <c r="O17" s="16" t="s">
@@ -2552,7 +2572,7 @@
       <c r="B18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -2585,7 +2605,7 @@
       <c r="M18" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="N18" s="31" t="s">
         <v>30</v>
       </c>
       <c r="O18" s="19" t="s">
@@ -2629,7 +2649,7 @@
       <c r="B19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -2662,7 +2682,7 @@
       <c r="M19" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="N19" s="31" t="s">
         <v>30</v>
       </c>
       <c r="O19" s="16" t="s">
@@ -2706,7 +2726,7 @@
       <c r="B20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="30" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -2739,7 +2759,7 @@
       <c r="M20" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="N20" s="2" t="s">
+      <c r="N20" s="31" t="s">
         <v>30</v>
       </c>
       <c r="O20" s="16" t="s">
@@ -2783,7 +2803,7 @@
       <c r="B21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -2816,7 +2836,7 @@
       <c r="M21" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="N21" s="2" t="s">
+      <c r="N21" s="31" t="s">
         <v>30</v>
       </c>
       <c r="O21" s="16" t="s">
@@ -2860,7 +2880,7 @@
       <c r="B22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="30" t="s">
         <v>31</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -2893,7 +2913,7 @@
       <c r="M22" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="N22" s="31" t="s">
         <v>30</v>
       </c>
       <c r="O22" s="16" t="s">
@@ -2937,7 +2957,7 @@
       <c r="B23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -2970,7 +2990,7 @@
       <c r="M23" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="N23" s="30" t="s">
         <v>31</v>
       </c>
       <c r="O23" s="16" t="s">
@@ -3014,7 +3034,7 @@
       <c r="B24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -3047,7 +3067,7 @@
       <c r="M24" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="N24" s="2" t="s">
+      <c r="N24" s="31" t="s">
         <v>30</v>
       </c>
       <c r="O24" s="16" t="s">
@@ -3091,7 +3111,7 @@
       <c r="B25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -3124,7 +3144,7 @@
       <c r="M25" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="N25" s="30" t="s">
         <v>31</v>
       </c>
       <c r="O25" s="19" t="s">
@@ -3168,7 +3188,7 @@
       <c r="B26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -3201,7 +3221,7 @@
       <c r="M26" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="N26" s="2" t="s">
+      <c r="N26" s="31" t="s">
         <v>30</v>
       </c>
       <c r="O26" s="16" t="s">
@@ -3245,7 +3265,7 @@
       <c r="B27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -3278,7 +3298,7 @@
       <c r="M27" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="N27" s="2" t="s">
+      <c r="N27" s="31" t="s">
         <v>30</v>
       </c>
       <c r="O27" s="19" t="s">
@@ -3322,7 +3342,7 @@
       <c r="B28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -3355,7 +3375,7 @@
       <c r="M28" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="N28" s="2" t="s">
+      <c r="N28" s="31" t="s">
         <v>30</v>
       </c>
       <c r="O28" s="16" t="s">
@@ -3399,7 +3419,7 @@
       <c r="B29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -3432,7 +3452,7 @@
       <c r="M29" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="N29" s="2" t="s">
+      <c r="N29" s="31" t="s">
         <v>30</v>
       </c>
       <c r="O29" s="19" t="s">
@@ -3476,7 +3496,7 @@
       <c r="B30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -3509,7 +3529,7 @@
       <c r="M30" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="N30" s="2" t="s">
+      <c r="N30" s="31" t="s">
         <v>30</v>
       </c>
       <c r="O30" s="26" t="s">
